--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Prueba basica de excel en git</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Zurich</t>
+  </si>
+  <si>
+    <t>allianz</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,17 @@
       </c>
       <c r="C8" s="1">
         <v>42464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42465</v>
       </c>
     </row>
   </sheetData>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Prueba basica de excel en git</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Zurich</t>
-  </si>
-  <si>
-    <t>allianz</t>
   </si>
 </sst>
 </file>
@@ -382,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,17 +439,6 @@
       </c>
       <c r="C8" s="1">
         <v>42464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42465</v>
       </c>
     </row>
   </sheetData>

--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +54,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +396,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,18 +407,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
